--- a/材料入库单.xlsx
+++ b/材料入库单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1815" yWindow="2025" windowWidth="12960" windowHeight="8970" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2130" yWindow="2490" windowWidth="12960" windowHeight="8970" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="墨香腾" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'武汉美牛纸张物资有限公司'!1:1,'武汉美牛纸张物资有限公司'!A:B</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'武汉美牛纸张物资有限公司'!$A$1:$D$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'入库'!1:1,'入库'!A:B</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'入库'!$A$1:$D$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'入库'!$A$1:$F$5</definedName>
   </definedNames>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
@@ -24,7 +24,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <name val="等线"/>
@@ -59,7 +61,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -79,6 +81,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF40E0D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFEEEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -115,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -131,8 +138,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -730,10 +749,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6.875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11.25" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12.75" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="11.375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.5" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="14.125" bestFit="1" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
@@ -745,15 +764,25 @@
       </c>
       <c r="B1" s="7" t="inlineStr">
         <is>
-          <t>数量</t>
+          <t>数量(令)</t>
         </is>
       </c>
       <c r="C1" s="7" t="inlineStr">
         <is>
+          <t>计算重量</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>数量(吨)</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>不含税金额</t>
         </is>
@@ -762,40 +791,96 @@
     <row r="2">
       <c r="A2" s="8" t="inlineStr">
         <is>
-          <t>进口双面胶</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="n">
-        <v>9200</v>
-      </c>
-      <c r="D2" s="9" t="n">
-        <v>8141.59</v>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+          <t>卷筒纸</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="n">
+        <v>64.14</v>
+      </c>
+      <c r="D2" s="16" t="n">
+        <v>64.14</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>411643.72</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>364286.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>牛皮卷筒纸</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D3" s="17" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>26381.25</v>
+      </c>
+      <c r="F3" s="13" t="n">
+        <v>23346.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>202304价差</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>-316617.35</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>-280192.35</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>总计</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>9200</v>
-      </c>
-      <c r="D3" s="10" t="n">
-        <v>8141.59</v>
+      <c r="B5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18" t="n">
+        <v>68.36</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <v>68.36</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>121407.62</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>107440.37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="2.17" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="300" verticalDpi="0"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"宋体,Bold Italic"&amp;18 &amp;K000000武汉嘉骏 材料入库</oddHeader>
+    <oddHeader>&amp;C&amp;"宋体,Bold Italic"&amp;18 &amp;K000000白云 材料入库</oddHeader>
     <oddFooter>&amp;C&amp;"Tahoma"&amp;12 &amp;K000000 &amp;P / &amp;N&amp;R&amp;"书体坊米芾体"&amp;12 &amp;K000000张文伟 &amp;D</oddFooter>
     <evenHeader/>
     <evenFooter/>
